--- a/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_磐石组.xlsx
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.1 新特性|Fix Bug'!$A$1:$S$2</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -104,10 +104,6 @@
     <t>修正负责人</t>
   </si>
   <si>
-    <t>新特性</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -133,6 +129,22 @@
   </si>
   <si>
     <t>相关修改文件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>入账明细</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>对账明细</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +828,7 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>8</v>
@@ -907,35 +919,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="16">
         <v>42625</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="16">
         <v>42625</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="16"/>
@@ -950,17 +962,37 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="16">
+        <v>42625</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="16">
+        <v>42625</v>
+      </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="J3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="M3" s="24"/>
       <c r="N3" s="16"/>
       <c r="O3" s="24"/>
@@ -974,17 +1006,37 @@
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16">
+        <v>42625</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="16">
+        <v>42625</v>
+      </c>
       <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="J4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
       <c r="O4" s="24"/>

--- a/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.1/版本Bug和特性计划及评审表v5.0.1_磐石组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -116,15 +116,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>钱文博、张浩</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>磐石组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>王健</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -145,6 +137,26 @@
   </si>
   <si>
     <t>钱文博</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>公寓图片审核，图片显示优化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博、张浩</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +840,7 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>8</v>
@@ -922,7 +934,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>28</v>
@@ -941,13 +953,13 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="16"/>
@@ -963,10 +975,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>28</v>
@@ -985,13 +997,13 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="16"/>
@@ -1007,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>28</v>
@@ -1029,13 +1041,13 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
@@ -1050,17 +1062,37 @@
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="16">
+        <v>42625</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="16">
+        <v>42625</v>
+      </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
       <c r="O5" s="24"/>
